--- a/2020/June/Others/Price list June 2020.xlsx
+++ b/2020/June/Others/Price list June 2020.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>Model</t>
   </si>
@@ -60,15 +60,9 @@
     <t>L90</t>
   </si>
   <si>
-    <t>L110</t>
-  </si>
-  <si>
     <t>T130</t>
   </si>
   <si>
-    <t>L65j</t>
-  </si>
-  <si>
     <t>E90</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>V135</t>
   </si>
   <si>
-    <t>V130</t>
-  </si>
-  <si>
     <t>V155</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>i120</t>
   </si>
   <si>
-    <t>P9</t>
-  </si>
-  <si>
     <t>L52</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
     <t>i68</t>
   </si>
   <si>
-    <t>i72</t>
-  </si>
-  <si>
     <t>i95</t>
   </si>
   <si>
@@ -298,6 +283,12 @@
   </si>
   <si>
     <t xml:space="preserve">           Address: Komola Super Market, Alaipur, Natore.</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>T180</t>
   </si>
 </sst>
 </file>
@@ -384,18 +375,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -526,16 +511,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -549,9 +528,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -568,16 +544,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,7 +644,7 @@
         <xdr:cNvPr id="2" name="Group 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -692,7 +665,7 @@
           <xdr:cNvPr id="3" name="Freeform 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -898,7 +871,7 @@
           <xdr:cNvPr id="4" name="Freeform 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1999,7 +1972,7 @@
           <xdr:cNvPr id="5" name="Freeform 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2439,7 +2412,7 @@
           <xdr:cNvPr id="6" name="Freeform 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2499,7 +2472,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2516,7 +2489,7 @@
           <xdr:cNvPr id="7" name="Freeform 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2579,7 +2552,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2596,7 +2569,7 @@
           <xdr:cNvPr id="8" name="Freeform 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2656,7 +2629,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2689,7 +2662,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2674,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2979,7 +2952,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2989,1290 +2962,1266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="O36" sqref="O35:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12" style="11" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12" style="16" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="32.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32">
+        <v>2020</v>
+      </c>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:17" ht="30">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6">
+        <v>780</v>
+      </c>
+      <c r="C6" s="6">
+        <v>840</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1070</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1160</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>800</v>
+      </c>
+      <c r="C7" s="6">
+        <v>870</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1100</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1199</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>790</v>
+      </c>
+      <c r="C8" s="6">
+        <v>860</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1160</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1250</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="6">
+        <v>740</v>
+      </c>
+      <c r="C9" s="6">
+        <v>790</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1010</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1090</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="6">
+        <v>740</v>
+      </c>
+      <c r="C10" s="6">
+        <v>790</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1040</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1130</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6">
+        <v>800</v>
+      </c>
+      <c r="C11" s="6">
+        <v>860</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="8">
+        <v>970</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1050</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6">
+        <v>790</v>
+      </c>
+      <c r="C12" s="6">
+        <v>850</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1100</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1199</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6">
+        <v>800</v>
+      </c>
+      <c r="C13" s="6">
+        <v>860</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1050</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1130</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6">
+        <v>915</v>
+      </c>
+      <c r="C14" s="6">
+        <v>990</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1299</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6">
+        <v>920</v>
+      </c>
+      <c r="C15" s="6">
+        <v>999</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5750</v>
+      </c>
+      <c r="I15" s="8">
+        <v>6190</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>880</v>
+      </c>
+      <c r="C16" s="6">
+        <v>950</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1190</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1290</v>
+      </c>
+      <c r="J16" s="6">
+        <v>55</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6">
+        <v>845</v>
+      </c>
+      <c r="C17" s="6">
+        <v>910</v>
+      </c>
+      <c r="D17" s="6">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1190</v>
+      </c>
+      <c r="J17" s="6">
+        <v>45</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6">
+        <v>820</v>
+      </c>
+      <c r="C18" s="6">
+        <v>890</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1250</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1350</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6">
+        <v>920</v>
+      </c>
+      <c r="C19" s="6">
+        <v>990</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1370</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1490</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8">
+        <v>995</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1075</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1220</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1320</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="6">
+        <v>880</v>
+      </c>
+      <c r="C21" s="6">
+        <v>950</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3610</v>
+      </c>
+      <c r="I21" s="8">
+        <v>3890</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
+        <v>900</v>
+      </c>
+      <c r="C22" s="8">
+        <v>970</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3890</v>
+      </c>
+      <c r="I22" s="8">
+        <v>4190</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1040</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1120</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="8">
+        <v>4280</v>
+      </c>
+      <c r="I23" s="8">
+        <v>4590</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="8">
+        <v>930</v>
+      </c>
+      <c r="C24" s="8">
+        <v>999</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5020</v>
+      </c>
+      <c r="I24" s="8">
+        <v>5390</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="8">
+        <v>940</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="8">
+        <v>5280</v>
+      </c>
+      <c r="I25" s="8">
+        <v>5690</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1170</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1270</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4180</v>
+      </c>
+      <c r="I26" s="8">
+        <v>4490</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="8">
+        <v>870</v>
+      </c>
+      <c r="C27" s="8">
+        <v>940</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="8">
+        <v>5100</v>
+      </c>
+      <c r="I27" s="8">
+        <v>5490</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1020</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1090</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="8">
+        <v>5390</v>
+      </c>
+      <c r="I28" s="8">
+        <v>5790</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2780</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2990</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6">
+        <v>450</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="8">
+        <v>3560</v>
+      </c>
+      <c r="I29" s="8">
+        <v>3840</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2770</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2990</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6">
+        <v>450</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3340</v>
+      </c>
+      <c r="I30" s="8">
+        <v>3590</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4050</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4290</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="8">
+        <v>4500</v>
+      </c>
+      <c r="I31" s="8">
+        <v>4790</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="8">
+        <v>6540</v>
+      </c>
+      <c r="C32" s="8">
+        <v>6990</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6">
+        <v>70</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4970</v>
+      </c>
+      <c r="I32" s="8">
+        <v>5290</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8340</v>
+      </c>
+      <c r="C33" s="8">
+        <v>8990</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="6">
+        <v>120</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3710</v>
+      </c>
+      <c r="I33" s="8">
+        <v>3990</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="8">
+        <v>9190</v>
+      </c>
+      <c r="C34" s="8">
+        <v>9990</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6">
+        <v>170</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="8">
+        <v>3620</v>
+      </c>
+      <c r="I34" s="8">
+        <v>3890</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>5290</v>
+      </c>
+      <c r="C35" s="8">
+        <v>5690</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6">
+        <v>80</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="8">
+        <v>4080</v>
+      </c>
+      <c r="I35" s="8">
+        <v>4390</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>5010</v>
+      </c>
+      <c r="C36" s="8">
+        <v>5390</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="6">
+        <v>70</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="8">
+        <v>4220</v>
+      </c>
+      <c r="I36" s="8">
+        <v>4540</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A37" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="8">
+        <v>5170</v>
+      </c>
+      <c r="C37" s="8">
+        <v>5499</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6">
+        <v>50</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="8">
+        <v>3710</v>
+      </c>
+      <c r="I37" s="8">
+        <v>3990</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="8">
+        <v>5750</v>
+      </c>
+      <c r="C38" s="8">
+        <v>6190</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="6">
+        <v>550</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="8">
+        <v>7350</v>
+      </c>
+      <c r="I38" s="8">
+        <v>7990</v>
+      </c>
+      <c r="J38" s="6">
+        <v>700</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="8">
+        <v>5550</v>
+      </c>
+      <c r="C39" s="8">
+        <v>5990</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="6">
+        <v>60</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="8">
+        <v>7890</v>
+      </c>
+      <c r="I39" s="8">
+        <v>8490</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="8">
+        <v>5940</v>
+      </c>
+      <c r="C40" s="8">
+        <v>6390</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="6">
+        <v>90</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="8">
+        <v>8310</v>
+      </c>
+      <c r="I40" s="8">
+        <v>8990</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A41" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="8">
+        <v>5510</v>
+      </c>
+      <c r="C41" s="8">
+        <v>5990</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="6">
+        <v>60</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="8">
+        <v>8310</v>
+      </c>
+      <c r="I41" s="8">
+        <v>8990</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A42" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="8">
+        <v>6470</v>
+      </c>
+      <c r="C42" s="8">
+        <v>6990</v>
+      </c>
+      <c r="D42" s="8">
+        <v>400</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36">
-        <v>2020</v>
-      </c>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:17" ht="30">
-      <c r="A5" s="12" t="s">
+      <c r="H42" s="8">
+        <v>10340</v>
+      </c>
+      <c r="I42" s="8">
+        <v>10990</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="19" t="s">
+    </row>
+    <row r="43" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" ht="21.6" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
+      <c r="A45" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="8">
-        <v>780</v>
-      </c>
-      <c r="C6" s="8">
-        <v>840</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1100</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1199</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8">
-        <v>800</v>
-      </c>
-      <c r="C7" s="8">
-        <v>870</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1160</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1250</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>790</v>
-      </c>
-      <c r="C8" s="8">
-        <v>860</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1010</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1090</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="8">
-        <v>740</v>
-      </c>
-      <c r="C9" s="8">
-        <v>790</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>10</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1040</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1130</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="8">
-        <v>740</v>
-      </c>
-      <c r="C10" s="8">
-        <v>790</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
-        <v>10</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="10">
-        <v>970</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1050</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="8">
-        <v>800</v>
-      </c>
-      <c r="C11" s="8">
-        <v>860</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
-        <v>10</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1100</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1199</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="8">
-        <v>790</v>
-      </c>
-      <c r="C12" s="8">
-        <v>850</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8">
-        <v>10</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1050</v>
-      </c>
-      <c r="I12" s="10">
-        <v>1130</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3">
-        <v>800</v>
-      </c>
-      <c r="C13" s="3">
-        <v>860</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1330</v>
-      </c>
-      <c r="I13" s="10">
-        <v>1450</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="8">
-        <v>915</v>
-      </c>
-      <c r="C14" s="8">
-        <v>990</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1200</v>
-      </c>
-      <c r="I14" s="10">
-        <v>1299</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="8">
-        <v>920</v>
-      </c>
-      <c r="C15" s="8">
-        <v>999</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="10">
-        <v>12090</v>
-      </c>
-      <c r="I15" s="10">
-        <v>12990</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8">
-        <v>200</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8">
-        <v>880</v>
-      </c>
-      <c r="C16" s="8">
-        <v>950</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8">
-        <v>20</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="10">
-        <v>5750</v>
-      </c>
-      <c r="I16" s="10">
-        <v>6190</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="3">
-        <v>845</v>
-      </c>
-      <c r="C17" s="3">
-        <v>910</v>
-      </c>
-      <c r="D17" s="3">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1190</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1290</v>
-      </c>
-      <c r="J17" s="3">
-        <v>55</v>
-      </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="8">
-        <v>820</v>
-      </c>
-      <c r="C18" s="8">
-        <v>890</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8">
-        <v>10</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="17" t="s">
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="4">
-        <v>1100</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1190</v>
-      </c>
-      <c r="J18" s="3">
-        <v>45</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="8">
-        <v>920</v>
-      </c>
-      <c r="C19" s="8">
-        <v>990</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8">
-        <v>10</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1250</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1350</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="10">
-        <v>995</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1075</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8">
-        <v>10</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1370</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1490</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="8">
-        <v>880</v>
-      </c>
-      <c r="C21" s="8">
-        <v>950</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8">
-        <v>10</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="10">
-        <v>3610</v>
-      </c>
-      <c r="I21" s="10">
-        <v>3890</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="10">
-        <v>900</v>
-      </c>
-      <c r="C22" s="10">
-        <v>970</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8">
-        <v>10</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="10">
-        <v>3890</v>
-      </c>
-      <c r="I22" s="10">
-        <v>4190</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1040</v>
-      </c>
-      <c r="C23" s="10">
-        <v>1120</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8">
-        <v>20</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="10">
-        <v>4280</v>
-      </c>
-      <c r="I23" s="10">
-        <v>4590</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="10">
-        <v>930</v>
-      </c>
-      <c r="C24" s="10">
-        <v>999</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8">
-        <v>10</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="10">
-        <v>5650</v>
-      </c>
-      <c r="I24" s="10">
-        <v>6150</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="10">
-        <v>940</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1020</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8">
-        <v>10</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="10">
-        <v>5020</v>
-      </c>
-      <c r="I25" s="10">
-        <v>5390</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1170</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1270</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8">
-        <v>10</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="10">
-        <v>5280</v>
-      </c>
-      <c r="I26" s="10">
-        <v>5690</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="10">
-        <v>870</v>
-      </c>
-      <c r="C27" s="10">
-        <v>940</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8">
-        <v>10</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="10">
-        <v>4180</v>
-      </c>
-      <c r="I27" s="10">
-        <v>4490</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1020</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1090</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8">
-        <v>20</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="10">
-        <v>5100</v>
-      </c>
-      <c r="I28" s="10">
-        <v>5490</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="10">
-        <v>2780</v>
-      </c>
-      <c r="C29" s="10">
-        <v>2990</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8">
-        <v>450</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="10">
-        <v>5390</v>
-      </c>
-      <c r="I29" s="10">
-        <v>5790</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="10">
-        <v>2770</v>
-      </c>
-      <c r="C30" s="10">
-        <v>2990</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8">
-        <v>450</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="10">
-        <v>3560</v>
-      </c>
-      <c r="I30" s="10">
-        <v>3840</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A31" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="10">
-        <v>6540</v>
-      </c>
-      <c r="C31" s="10">
-        <v>6990</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8">
-        <v>70</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="10">
-        <v>3340</v>
-      </c>
-      <c r="I31" s="10">
-        <v>3590</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A32" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="10">
-        <v>8340</v>
-      </c>
-      <c r="C32" s="10">
-        <v>8990</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="10">
-        <v>4500</v>
-      </c>
-      <c r="I32" s="10">
-        <v>4790</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A33" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="10">
-        <v>9190</v>
-      </c>
-      <c r="C33" s="10">
-        <v>9990</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8">
-        <v>170</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="10">
-        <v>4970</v>
-      </c>
-      <c r="I33" s="10">
-        <v>5290</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A34" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="10">
-        <v>5290</v>
-      </c>
-      <c r="C34" s="10">
-        <v>5690</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8">
-        <v>80</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="10">
-        <v>3710</v>
-      </c>
-      <c r="I34" s="10">
-        <v>3990</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A35" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="10">
-        <v>5010</v>
-      </c>
-      <c r="C35" s="10">
-        <v>5390</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8">
-        <v>70</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="10">
-        <v>3620</v>
-      </c>
-      <c r="I35" s="10">
-        <v>3890</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A36" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="10">
-        <v>5170</v>
-      </c>
-      <c r="C36" s="10">
-        <v>5499</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8">
-        <v>50</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="10">
-        <v>4080</v>
-      </c>
-      <c r="I36" s="10">
-        <v>4390</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="10">
-        <v>5750</v>
-      </c>
-      <c r="C37" s="10">
-        <v>6190</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8">
-        <v>550</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="10">
-        <v>4220</v>
-      </c>
-      <c r="I37" s="10">
-        <v>4540</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="10">
-        <v>5550</v>
-      </c>
-      <c r="C38" s="10">
-        <v>5990</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8">
-        <v>60</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="10">
-        <v>3710</v>
-      </c>
-      <c r="I38" s="10">
-        <v>3990</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="10">
-        <v>5940</v>
-      </c>
-      <c r="C39" s="10">
-        <v>6390</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="8">
-        <v>90</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="4">
-        <v>7350</v>
-      </c>
-      <c r="I39" s="4">
-        <v>7990</v>
-      </c>
-      <c r="J39" s="3">
-        <v>700</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A40" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="10">
-        <v>5940</v>
-      </c>
-      <c r="C40" s="10">
-        <v>6390</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="8">
-        <v>90</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="10">
-        <v>7890</v>
-      </c>
-      <c r="I40" s="10">
-        <v>8490</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A41" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="10">
-        <v>5510</v>
-      </c>
-      <c r="C41" s="10">
-        <v>5990</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="8">
-        <v>60</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" s="10">
-        <v>8310</v>
-      </c>
-      <c r="I41" s="10">
-        <v>8990</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A42" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="4">
-        <v>6470</v>
-      </c>
-      <c r="C42" s="4">
-        <v>6990</v>
-      </c>
-      <c r="D42" s="4">
-        <v>400</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="10">
-        <v>8310</v>
-      </c>
-      <c r="I42" s="10">
-        <v>8990</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A43" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="10">
-        <v>1220</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1320</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8">
-        <v>20</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" s="10">
-        <v>10340</v>
-      </c>
-      <c r="I43" s="10">
-        <v>10990</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A44" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="10">
-        <v>1070</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1160</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8">
-        <v>20</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75">
-      <c r="A45" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="23"/>
-      <c r="K45" s="24"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="15.75">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12">
       <c r="L47" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A5:D43">
-    <sortCondition ref="A5"/>
+  <sortState ref="G6:K44">
+    <sortCondition ref="G6"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A1:K1"/>
